--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-0.15/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-0.15/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="968">
   <si>
     <t>anchor score</t>
   </si>
@@ -415,406 +415,406 @@
     <t>19</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>deliveries</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>says</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>deliveries</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>best</t>
@@ -3283,10 +3283,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3344,7 +3344,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0318152730760697</v>
+        <v>0.03233502959483246</v>
       </c>
       <c r="C3">
         <v>137</v>
@@ -3365,28 +3365,28 @@
         <v>155</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="K3">
-        <v>0.004996849661130333</v>
+        <v>0.008165541513141887</v>
       </c>
       <c r="L3">
-        <v>303</v>
+        <v>172</v>
       </c>
       <c r="M3">
-        <v>309</v>
+        <v>172</v>
       </c>
       <c r="N3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2798</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3394,7 +3394,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01941156094050847</v>
+        <v>0.01972868175584979</v>
       </c>
       <c r="C4">
         <v>51</v>
@@ -3415,16 +3415,16 @@
         <v>465</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K4">
-        <v>0.004575279685791712</v>
+        <v>0.007701343296840181</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3444,7 +3444,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01120726993439339</v>
+        <v>0.01139035972249633</v>
       </c>
       <c r="C5">
         <v>17</v>
@@ -3465,28 +3465,28 @@
         <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="K5">
-        <v>0.004222791935280194</v>
+        <v>0.004996849661130333</v>
       </c>
       <c r="L5">
-        <v>46</v>
+        <v>303</v>
       </c>
       <c r="M5">
-        <v>46</v>
+        <v>309</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3494,7 +3494,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01120726993439339</v>
+        <v>0.01139035972249633</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -3515,16 +3515,16 @@
         <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K6">
-        <v>0.004129971986591402</v>
+        <v>0.004575279685791712</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>442</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3544,7 +3544,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01087264887395601</v>
+        <v>0.01105027205873728</v>
       </c>
       <c r="C7">
         <v>16</v>
@@ -3565,28 +3565,28 @@
         <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="K7">
-        <v>0.004026347551638965</v>
+        <v>0.004222791935280194</v>
       </c>
       <c r="L7">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="M7">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="N7">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>228</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3594,7 +3594,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008595583660241497</v>
+        <v>0.00873600711753194</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -3615,16 +3615,16 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K8">
-        <v>0.003838067124753889</v>
+        <v>0.004129971986591402</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>529</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3644,7 +3644,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.00815448665546701</v>
+        <v>0.008287704044052963</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -3665,16 +3665,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="K9">
-        <v>0.003592952020210786</v>
+        <v>0.004026347551638965</v>
       </c>
       <c r="L9">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="M9">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="N9">
         <v>0.99</v>
@@ -3686,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>23</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3694,7 +3694,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.007688123748234577</v>
+        <v>0.007813722306689365</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3715,16 +3715,16 @@
         <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K10">
-        <v>0.003522051944279562</v>
+        <v>0.003838067124753889</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3744,7 +3744,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006658110473409581</v>
+        <v>0.006766882015710131</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -3765,16 +3765,16 @@
         <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K11">
-        <v>0.003358484152496194</v>
+        <v>0.003592952020210786</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="M11">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="N11">
         <v>0.99</v>
@@ -3786,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3794,7 +3794,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006658110473409581</v>
+        <v>0.006766882015710131</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -3815,16 +3815,16 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K12">
-        <v>0.003113083516864178</v>
+        <v>0.003522051944279562</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3844,7 +3844,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006658110473409581</v>
+        <v>0.006766882015710131</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -3865,28 +3865,28 @@
         <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="K13">
-        <v>0.003113083516864178</v>
+        <v>0.003358484152496194</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="M13">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3894,7 +3894,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006658110473409581</v>
+        <v>0.006766882015710131</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -3915,16 +3915,16 @@
         <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K14">
-        <v>0.003050186457194474</v>
+        <v>0.003113083516864178</v>
       </c>
       <c r="L14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3944,7 +3944,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006658110473409581</v>
+        <v>0.006766882015710131</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -3965,16 +3965,16 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K15">
-        <v>0.003050186457194474</v>
+        <v>0.003113083516864178</v>
       </c>
       <c r="L15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>206</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3994,7 +3994,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006658110473409581</v>
+        <v>0.006766882015710131</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -4015,16 +4015,16 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K16">
-        <v>0.002985964812976489</v>
+        <v>0.003050186457194474</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4044,7 +4044,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006077995494413047</v>
+        <v>0.006177289873300779</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -4065,28 +4065,28 @@
         <v>46</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="K17">
-        <v>0.002956232862907992</v>
+        <v>0.003050186457194474</v>
       </c>
       <c r="L17">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="M17">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>3058</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4094,7 +4094,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006077995494413047</v>
+        <v>0.006177289873300779</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -4115,28 +4115,28 @@
         <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>138</v>
+        <v>276</v>
       </c>
       <c r="K18">
-        <v>0.002919159954264974</v>
+        <v>0.002985964812976489</v>
       </c>
       <c r="L18">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4144,7 +4144,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006077995494413047</v>
+        <v>0.006177289873300779</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -4165,28 +4165,28 @@
         <v>29</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>277</v>
+        <v>134</v>
       </c>
       <c r="K19">
-        <v>0.002853188172149886</v>
+        <v>0.002956232862907992</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>122</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4194,7 +4194,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006077995494413047</v>
+        <v>0.006177289873300779</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -4215,28 +4215,28 @@
         <v>33</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20">
-        <v>0.002719882658148781</v>
+        <v>0.002919159954264974</v>
       </c>
       <c r="L20">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="M20">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="N20">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O20">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4244,7 +4244,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006077995494413047</v>
+        <v>0.006177289873300779</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -4265,16 +4265,16 @@
         <v>26</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K21">
-        <v>0.002641538958209671</v>
+        <v>0.002853188172149886</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006077995494413047</v>
+        <v>0.006177289873300779</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4315,28 +4315,28 @@
         <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>132</v>
+        <v>278</v>
       </c>
       <c r="K22">
-        <v>0.002495070376777313</v>
+        <v>0.002641538958209671</v>
       </c>
       <c r="L22">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="M22">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="N22">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1952</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4344,7 +4344,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006077995494413047</v>
+        <v>0.006177289873300779</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4365,28 +4365,28 @@
         <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>279</v>
+        <v>132</v>
       </c>
       <c r="K23">
-        <v>0.002490466813491342</v>
+        <v>0.002495070376777313</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>45</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4394,7 +4394,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006077995494413047</v>
+        <v>0.006177289873300779</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4415,16 +4415,16 @@
         <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K24">
-        <v>0.002411384123233556</v>
+        <v>0.002490466813491342</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4444,7 +4444,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -4465,7 +4465,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K25">
         <v>0.002411384123233556</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4494,7 +4494,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -4515,7 +4515,7 @@
         <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K26">
         <v>0.002411384123233556</v>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4544,7 +4544,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -4565,28 +4565,28 @@
         <v>15</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="K27">
-        <v>0.002399229285324588</v>
+        <v>0.002411384123233556</v>
       </c>
       <c r="L27">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4594,7 +4594,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -4615,16 +4615,16 @@
         <v>18</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K28">
-        <v>0.002331565611670337</v>
+        <v>0.002399229285324588</v>
       </c>
       <c r="L28">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M28">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N28">
         <v>0.97</v>
@@ -4636,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4644,7 +4644,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4665,28 +4665,28 @@
         <v>7</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>283</v>
+        <v>139</v>
       </c>
       <c r="K29">
-        <v>0.00232961838730381</v>
+        <v>0.002331565611670337</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>151</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4694,7 +4694,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4715,7 +4715,7 @@
         <v>28</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K30">
         <v>0.00232961838730381</v>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4744,7 +4744,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4765,7 +4765,7 @@
         <v>16</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K31">
         <v>0.00232961838730381</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>171</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4794,7 +4794,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4815,7 +4815,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K32">
         <v>0.00232961838730381</v>
@@ -4836,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4844,7 +4844,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4865,16 +4865,16 @@
         <v>2</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K33">
-        <v>0.002244876448971111</v>
+        <v>0.00232961838730381</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4894,7 +4894,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -4915,7 +4915,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K34">
         <v>0.002244876448971111</v>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4944,7 +4944,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -4965,7 +4965,7 @@
         <v>9</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K35">
         <v>0.002244876448971111</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>254</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4994,7 +4994,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -5015,7 +5015,7 @@
         <v>21</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K36">
         <v>0.002244876448971111</v>
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>34</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5044,7 +5044,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -5065,28 +5065,28 @@
         <v>6</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="K37">
-        <v>0.002194266462729663</v>
+        <v>0.002244876448971111</v>
       </c>
       <c r="L37">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>327</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5094,7 +5094,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -5115,28 +5115,28 @@
         <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K38">
-        <v>0.002177953210744204</v>
+        <v>0.002194266462729663</v>
       </c>
       <c r="L38">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="M38">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="N38">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O38">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>156</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5144,7 +5144,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -5165,28 +5165,28 @@
         <v>3</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>291</v>
+        <v>133</v>
       </c>
       <c r="K39">
-        <v>0.002156807527765584</v>
+        <v>0.002177953210744204</v>
       </c>
       <c r="L39">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="M39">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>35</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5194,7 +5194,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -5215,7 +5215,7 @@
         <v>146</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K40">
         <v>0.002156807527765584</v>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5244,7 +5244,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -5265,7 +5265,7 @@
         <v>28</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K41">
         <v>0.002156807527765584</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5294,7 +5294,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -5315,7 +5315,7 @@
         <v>23</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K42">
         <v>0.002156807527765584</v>
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5344,7 +5344,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5365,7 +5365,7 @@
         <v>52</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K43">
         <v>0.002156807527765584</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5394,7 +5394,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5415,7 +5415,7 @@
         <v>4</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K44">
         <v>0.002156807527765584</v>
@@ -5436,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5444,7 +5444,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -5465,7 +5465,7 @@
         <v>34</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K45">
         <v>0.002156807527765584</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5494,7 +5494,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -5515,7 +5515,7 @@
         <v>19</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K46">
         <v>0.002156807527765584</v>
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>296</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5544,7 +5544,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -5565,28 +5565,28 @@
         <v>5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="K47">
-        <v>0.002127433021073022</v>
+        <v>0.002156807527765584</v>
       </c>
       <c r="L47">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="M47">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="N47">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>156</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5594,7 +5594,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -5644,7 +5644,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -5694,7 +5694,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -5744,7 +5744,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -5794,7 +5794,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -5844,7 +5844,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -5894,7 +5894,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -5994,7 +5994,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -6044,7 +6044,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -6065,7 +6065,7 @@
         <v>26</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K57">
         <v>0.002054206340207388</v>
@@ -6094,7 +6094,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -6144,7 +6144,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -6194,7 +6194,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -6215,7 +6215,7 @@
         <v>164</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K60">
         <v>0.00195474725593748</v>
@@ -6244,7 +6244,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -6265,7 +6265,7 @@
         <v>4</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K61">
         <v>0.001912959702242324</v>
@@ -6294,7 +6294,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -6344,7 +6344,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -6394,7 +6394,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -6444,7 +6444,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -6494,7 +6494,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -6544,7 +6544,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -6594,7 +6594,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003069765480127359</v>
+        <v>0.003119915312742475</v>
       </c>
       <c r="C68">
         <v>6</v>
@@ -6644,7 +6644,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6694,7 +6694,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6744,7 +6744,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6794,7 +6794,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6844,7 +6844,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6894,7 +6894,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -6944,7 +6944,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -6994,7 +6994,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -7044,7 +7044,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -7065,7 +7065,7 @@
         <v>5</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K77">
         <v>0.001709484699595518</v>
@@ -7094,7 +7094,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -7144,7 +7144,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7194,7 +7194,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7244,7 +7244,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7294,7 +7294,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7344,7 +7344,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7394,7 +7394,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7415,7 +7415,7 @@
         <v>5</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K84">
         <v>0.001599692872871547</v>
@@ -7444,7 +7444,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7465,7 +7465,7 @@
         <v>15</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K85">
         <v>0.001562833432726243</v>
@@ -7494,7 +7494,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7515,7 +7515,7 @@
         <v>10</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K86">
         <v>0.001562833432726243</v>
@@ -7544,7 +7544,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7565,7 +7565,7 @@
         <v>25</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K87">
         <v>0.001562833432726243</v>
@@ -7594,7 +7594,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7644,7 +7644,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7694,7 +7694,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7744,7 +7744,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7794,7 +7794,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7844,7 +7844,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7894,7 +7894,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7944,7 +7944,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7994,7 +7994,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -8044,7 +8044,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -8094,7 +8094,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8144,7 +8144,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8194,7 +8194,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8244,7 +8244,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8294,7 +8294,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8344,7 +8344,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8394,7 +8394,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8415,7 +8415,7 @@
         <v>18</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K104">
         <v>0.00151111252146109</v>
@@ -8444,7 +8444,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8494,7 +8494,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8544,7 +8544,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8594,7 +8594,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8694,7 +8694,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8744,7 +8744,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8794,7 +8794,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8844,7 +8844,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8894,7 +8894,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8944,7 +8944,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8994,7 +8994,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9044,7 +9044,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9094,7 +9094,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9144,7 +9144,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9194,7 +9194,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9244,7 +9244,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9294,7 +9294,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9344,7 +9344,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9394,7 +9394,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9444,7 +9444,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9494,7 +9494,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9544,7 +9544,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002560342802350169</v>
+        <v>0.002602170350352257</v>
       </c>
       <c r="C127">
         <v>10</v>
@@ -9594,19 +9594,19 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002453222275476818</v>
+        <v>0.002225372984387949</v>
       </c>
       <c r="C128">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D128">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="E128">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F128">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
@@ -9644,25 +9644,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002351444224034998</v>
+        <v>0.002225120052831955</v>
       </c>
       <c r="C129">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D129">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E129">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F129">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>80</v>
+        <v>3058</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>371</v>
@@ -9694,25 +9694,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002189602115153952</v>
+        <v>0.002042550271173711</v>
       </c>
       <c r="C130">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="E130">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F130">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>372</v>
@@ -9744,25 +9744,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002189353249245234</v>
+        <v>0.00203947340491569</v>
       </c>
       <c r="C131">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D131">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="E131">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F131">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>3058</v>
+        <v>36</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>373</v>
@@ -9794,25 +9794,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002009718112624741</v>
+        <v>0.001939401940801177</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D132">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="E132">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F132">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>228</v>
+        <v>789</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>374</v>
@@ -9844,25 +9844,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002006690704224498</v>
+        <v>0.001872141737949329</v>
       </c>
       <c r="C133">
         <v>3</v>
       </c>
       <c r="D133">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E133">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F133">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>375</v>
@@ -9894,25 +9894,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001908227798891819</v>
+        <v>0.001848147177634818</v>
       </c>
       <c r="C134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D134">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E134">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F134">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>789</v>
+        <v>15</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>376</v>
@@ -9944,13 +9944,13 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001842048743307304</v>
+        <v>0.001797632322026481</v>
       </c>
       <c r="C135">
         <v>3</v>
       </c>
       <c r="D135">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E135">
         <v>0.97</v>
@@ -9962,7 +9962,7 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>20</v>
+        <v>327</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>377</v>
@@ -9994,25 +9994,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001818439873969254</v>
+        <v>0.001743371644648716</v>
       </c>
       <c r="C136">
         <v>3</v>
       </c>
       <c r="D136">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E136">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F136">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>15</v>
+        <v>816</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>378</v>
@@ -10044,28 +10044,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001768736999231996</v>
+        <v>0.001563244681018685</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E137">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F137">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>327</v>
+        <v>23</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K137">
         <v>0.001385057702894675</v>
@@ -10094,28 +10094,28 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.00171534851344128</v>
+        <v>0.001536385101693012</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D138">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E138">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F138">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>816</v>
+        <v>38</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K138">
         <v>0.001372214883315496</v>
@@ -10144,13 +10144,13 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001538116928746254</v>
+        <v>0.001528881101171795</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E139">
         <v>0.99</v>
@@ -10162,10 +10162,10 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K139">
         <v>0.001267777137758863</v>
@@ -10194,25 +10194,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001511689093000862</v>
+        <v>0.001512316728380831</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E140">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F140">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>379</v>
@@ -10244,25 +10244,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.00150430571253896</v>
+        <v>0.001464667743450447</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D141">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="E141">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F141">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>46</v>
+        <v>804</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>380</v>
@@ -10294,25 +10294,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001488007597142691</v>
+        <v>0.001434394862176274</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D142">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E142">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F142">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>381</v>
@@ -10344,25 +10344,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.00144112452678979</v>
+        <v>0.001418891958683739</v>
       </c>
       <c r="C143">
         <v>4</v>
       </c>
       <c r="D143">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E143">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F143">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>804</v>
+        <v>1101</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>382</v>
@@ -10394,25 +10394,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001411338254854812</v>
+        <v>0.001392009334226088</v>
       </c>
       <c r="C144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E144">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F144">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>383</v>
@@ -10444,25 +10444,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.00139608454659268</v>
+        <v>0.001354584100217114</v>
       </c>
       <c r="C145">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D145">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E145">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F145">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>1101</v>
+        <v>365</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>384</v>
@@ -10494,25 +10494,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001369634036145078</v>
+        <v>0.001285030748418405</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D146">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E146">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F146">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>161</v>
+        <v>598</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>385</v>
@@ -10544,25 +10544,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001332810379112719</v>
+        <v>0.001184583015066517</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E147">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F147">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>365</v>
+        <v>4</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>386</v>
@@ -10594,25 +10594,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001264375034888216</v>
+        <v>0.001139997877591753</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E148">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F148">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>598</v>
+        <v>20</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>387</v>
@@ -10644,25 +10644,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001165541908507738</v>
+        <v>0.001139997877591753</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E149">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F149">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>388</v>
@@ -10694,7 +10694,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001121673437018217</v>
+        <v>0.001139997877591753</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10712,7 +10712,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>389</v>
@@ -10744,25 +10744,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001121673437018217</v>
+        <v>0.001086388323921113</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E151">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F151">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>390</v>
@@ -10794,13 +10794,13 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001121673437018217</v>
+        <v>0.001076314888563231</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E152">
         <v>0.97</v>
@@ -10812,7 +10812,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>311</v>
+        <v>32</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>391</v>
@@ -10844,13 +10844,13 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001068925608706651</v>
+        <v>0.001025058123107385</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
       <c r="D153">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E153">
         <v>0.9399999999999999</v>
@@ -10862,7 +10862,7 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>392</v>
@@ -10894,13 +10894,13 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001059014094762147</v>
+        <v>0.001017236735555617</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E154">
         <v>0.97</v>
@@ -10912,7 +10912,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>393</v>
@@ -10944,25 +10944,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001008581235710909</v>
+        <v>0.001002551689773761</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E155">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F155">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>394</v>
@@ -10994,25 +10994,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001000885569929517</v>
+        <v>0.00100108374421318</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E156">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F156">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>395</v>
@@ -11044,25 +11044,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0009864365730509414</v>
+        <v>0.0009842992397062376</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E157">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F157">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>293</v>
+        <v>70</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>396</v>
@@ -11094,13 +11094,13 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0009849922233949838</v>
+        <v>0.0009842992397062376</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E158">
         <v>0.96</v>
@@ -11112,7 +11112,7 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>397</v>
@@ -11144,25 +11144,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.000968477514702086</v>
+        <v>0.0009576072673812391</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E159">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F159">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>398</v>
@@ -11194,25 +11194,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.000968477514702086</v>
+        <v>0.0009335632101507948</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160">
         <v>27</v>
       </c>
       <c r="E160">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F160">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>399</v>
@@ -11244,25 +11244,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0009422145918255766</v>
+        <v>0.000889084343005089</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E161">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F161">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>400</v>
@@ -11294,25 +11294,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0009185570211899992</v>
+        <v>0.0008444723828846974</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E162">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F162">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>401</v>
@@ -11344,13 +11344,13 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0008747931118295761</v>
+        <v>0.0008204154002603936</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E163">
         <v>0.95</v>
@@ -11362,7 +11362,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>402</v>
@@ -11394,25 +11394,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0008308982488443319</v>
+        <v>0.0007950352089613513</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E164">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F164">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>403</v>
@@ -11444,25 +11444,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0008072279605789763</v>
+        <v>0.0007681925508465062</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E165">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F165">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>404</v>
@@ -11494,13 +11494,13 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0007822557330282408</v>
+        <v>0.0007397257873537644</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E166">
         <v>0.9399999999999999</v>
@@ -11512,7 +11512,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>405</v>
@@ -11544,25 +11544,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0007558445465004309</v>
+        <v>0.000704327682226227</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E167">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F167">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>406</v>
@@ -11594,25 +11594,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0007278353606279611</v>
+        <v>0.0006771305924787934</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E168">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F168">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>407</v>
@@ -11644,25 +11644,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0006930062482034588</v>
+        <v>0.0006771305924787934</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E169">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F169">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>408</v>
@@ -11694,7 +11694,7 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0006662463272127802</v>
+        <v>0.0006771305924787934</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -11712,7 +11712,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>409</v>
@@ -11744,25 +11744,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0006662463272127802</v>
+        <v>0.0006698016217888756</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E171">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F171">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>410</v>
@@ -11794,25 +11794,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0006662463272127802</v>
+        <v>0.0006052837920209085</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E172">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F172">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>411</v>
@@ -11844,25 +11844,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0006590351631350608</v>
+        <v>0.0006052837920209085</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E173">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F173">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>412</v>
@@ -11894,25 +11894,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0005955543994535799</v>
+        <v>0.0005955774260194067</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E174">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F174">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>413</v>
@@ -11944,25 +11944,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0005955543994535799</v>
+        <v>0.0005955774260194067</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E175">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F175">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>414</v>
@@ -11994,25 +11994,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0005860040545556921</v>
+        <v>0.0005650532353912461</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E176">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F176">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>415</v>
@@ -12044,25 +12044,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0005860040545556921</v>
+        <v>0.0005650532353912461</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E177">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F177">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>416</v>
@@ -12094,7 +12094,7 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0005559705128385652</v>
+        <v>0.0005650532353912461</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>417</v>
@@ -12144,7 +12144,7 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0005559705128385652</v>
+        <v>0.0005650532353912461</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -12162,7 +12162,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>418</v>
@@ -12194,25 +12194,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0005559705128385652</v>
+        <v>0.0005554000367035093</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D180">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E180">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="F180">
-        <v>0.08999999999999997</v>
+        <v>0.16</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>49</v>
+        <v>526</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>419</v>
@@ -12244,25 +12244,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0005559705128385652</v>
+        <v>0.0005213570170404349</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E181">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F181">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>420</v>
@@ -12294,25 +12294,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0005464724806376921</v>
+        <v>0.0005213570170404349</v>
       </c>
       <c r="C182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E182">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="F182">
-        <v>0.16</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>526</v>
+        <v>33</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>421</v>
@@ -12344,7 +12344,7 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0005129766718975691</v>
+        <v>0.0005213570170404349</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -12362,7 +12362,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>422</v>
@@ -12394,7 +12394,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0005129766718975691</v>
+        <v>0.0005213570170404349</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -12412,7 +12412,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>423</v>
@@ -12444,28 +12444,28 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0005129766718975691</v>
+        <v>0.0005134030337044763</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E185">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F185">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K185">
         <v>0.001220348696412931</v>
@@ -12494,28 +12494,28 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0005129766718975691</v>
+        <v>0.0004762995065042626</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D186">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E186">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="F186">
-        <v>0.09999999999999998</v>
+        <v>0.18</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K186">
         <v>0.001213134181317142</v>
@@ -12544,28 +12544,28 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0005051505416899606</v>
+        <v>0.0004736212688166617</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E187">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F187">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K187">
         <v>0.001196523227293238</v>
@@ -12594,28 +12594,28 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0004686434203187519</v>
+        <v>0.0004688809394807279</v>
       </c>
       <c r="C188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E188">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="F188">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K188">
         <v>0.00117235753688193</v>
@@ -12644,28 +12644,28 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0004660082328931847</v>
+        <v>0.0004344320293491861</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D189">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E189">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F189">
-        <v>0.11</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>39</v>
+        <v>952</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K189">
         <v>0.00113115367822326</v>
@@ -12694,28 +12694,28 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.000461344100087896</v>
+        <v>0.0004211368366599517</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E190">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F190">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K190">
         <v>0.00113115367822326</v>
@@ -12744,25 +12744,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0004274489252035304</v>
+        <v>0.0004211368366599517</v>
       </c>
       <c r="C191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E191">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="F191">
-        <v>0.1899999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>952</v>
+        <v>18</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>424</v>
@@ -12794,7 +12794,7 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0004143674407791414</v>
+        <v>0.0004211368366599517</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -12812,7 +12812,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>425</v>
@@ -12844,25 +12844,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0004143674407791414</v>
+        <v>0.0003630307666141807</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E193">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F193">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>426</v>
@@ -12894,25 +12894,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0004143674407791414</v>
+        <v>0.0003630307666141807</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E194">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F194">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>427</v>
@@ -12944,7 +12944,7 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0003571953735490289</v>
+        <v>0.0003630307666141807</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -12962,7 +12962,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>428</v>
@@ -12994,7 +12994,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0003571953735490289</v>
+        <v>0.0003630307666141807</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -13012,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>429</v>
@@ -13044,7 +13044,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0003571953735490289</v>
+        <v>0.0003630307666141807</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -13062,7 +13062,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>430</v>
@@ -13094,25 +13094,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0003571953735490289</v>
+        <v>0.0002982593111487426</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E198">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F198">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>431</v>
@@ -13144,25 +13144,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0003571953735490289</v>
+        <v>0.0002982593111487426</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E199">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F199">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>432</v>
@@ -13194,7 +13194,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.000293465060975054</v>
+        <v>0.0002982593111487426</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13212,7 +13212,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>433</v>
@@ -13244,7 +13244,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.000293465060975054</v>
+        <v>0.0002982593111487426</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13262,7 +13262,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>434</v>
@@ -13294,7 +13294,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.000293465060975054</v>
+        <v>0.0002982593111487426</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13312,7 +13312,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>435</v>
@@ -13344,7 +13344,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.000293465060975054</v>
+        <v>0.0002982593111487426</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13362,7 +13362,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>436</v>
@@ -13394,25 +13394,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.000293465060975054</v>
+        <v>0.0002508663576850194</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D204">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E204">
-        <v>0.83</v>
+        <v>0.25</v>
       </c>
       <c r="F204">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>437</v>
@@ -13444,25 +13444,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.000293465060975054</v>
+        <v>0.0002257133155075274</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E205">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F205">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>438</v>
@@ -13494,25 +13494,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0002468339066132598</v>
+        <v>0.0002257133155075274</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E206">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="F206">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>439</v>
@@ -13544,7 +13544,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0002220851769662426</v>
+        <v>0.0002257133155075274</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13562,7 +13562,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>440</v>
@@ -13594,7 +13594,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0002220851769662426</v>
+        <v>0.0002257133155075274</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13612,7 +13612,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>441</v>
@@ -13644,7 +13644,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0002220851769662426</v>
+        <v>0.0002257133155075274</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13662,7 +13662,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>442</v>
@@ -13694,7 +13694,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0002220851769662426</v>
+        <v>0.0002257133155075274</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13712,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>443</v>
@@ -13744,7 +13744,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0002220851769662426</v>
+        <v>0.0002257133155075274</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -13762,7 +13762,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>444</v>
@@ -13794,7 +13794,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0002220851769662426</v>
+        <v>0.0002257133155075274</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -13812,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>445</v>
@@ -13844,7 +13844,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0002220851769662426</v>
+        <v>0.0002257133155075274</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -13862,7 +13862,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>62</v>
+        <v>459</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>446</v>
@@ -13894,25 +13894,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0002220851769662426</v>
+        <v>0.0001514645904388135</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D214">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E214">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F214">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>447</v>
@@ -13944,25 +13944,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0002220851769662426</v>
+        <v>0.0001448377591400675</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E215">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F215">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>459</v>
+        <v>20</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>448</v>
@@ -13994,25 +13994,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0001490299333740528</v>
+        <v>0.0001448377591400675</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E216">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F216">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>449</v>
@@ -14044,7 +14044,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0001425096224282932</v>
+        <v>0.0001448377591400675</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -14094,7 +14094,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0001425096224282932</v>
+        <v>0.0001448377591400675</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14112,7 +14112,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>451</v>
@@ -14144,7 +14144,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0001425096224282932</v>
+        <v>0.0001448377591400675</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -14162,7 +14162,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>452</v>
@@ -14194,7 +14194,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0001425096224282932</v>
+        <v>0.0001448377591400675</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -14212,7 +14212,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>453</v>
@@ -14244,7 +14244,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0001425096224282932</v>
+        <v>0.0001448377591400675</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14262,7 +14262,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>454</v>
@@ -14294,7 +14294,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0001425096224282932</v>
+        <v>0.0001448377591400675</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14312,7 +14312,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>455</v>
@@ -14344,7 +14344,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0001425096224282932</v>
+        <v>0.0001448377591400675</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14362,7 +14362,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>456</v>
@@ -14394,7 +14394,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0001425096224282932</v>
+        <v>0.0001448377591400675</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14412,7 +14412,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>457</v>
@@ -14444,7 +14444,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0001425096224282932</v>
+        <v>0.0001448377591400675</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14462,7 +14462,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>458</v>
@@ -14494,7 +14494,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0001425096224282932</v>
+        <v>0.0001448377591400675</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14512,7 +14512,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>459</v>
@@ -14544,7 +14544,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0001425096224282932</v>
+        <v>0.0001448377591400675</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14562,7 +14562,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>460</v>
@@ -14594,25 +14594,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0001425096224282932</v>
+        <v>0.0001440917764246671</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E228">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F228">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>461</v>
@@ -14644,25 +14644,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0001425096224282932</v>
+        <v>0.0001440917764246671</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E229">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F229">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>462</v>
@@ -14694,7 +14694,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0001417756307141093</v>
+        <v>0.0001440917764246671</v>
       </c>
       <c r="C230">
         <v>2</v>
@@ -14712,7 +14712,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>463</v>
@@ -14744,25 +14744,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0001417756307141093</v>
+        <v>8.337208746801323E-05</v>
       </c>
       <c r="C231">
         <v>2</v>
       </c>
       <c r="D231">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E231">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F231">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>464</v>
@@ -14794,25 +14794,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0001417756307141093</v>
+        <v>5.895296841031013E-05</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D232">
+        <v>3</v>
+      </c>
+      <c r="E232">
+        <v>0.67</v>
+      </c>
+      <c r="F232">
+        <v>0.33</v>
+      </c>
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232">
         <v>7</v>
-      </c>
-      <c r="E232">
-        <v>0.71</v>
-      </c>
-      <c r="F232">
-        <v>0.29</v>
-      </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232">
-        <v>50</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>465</v>
@@ -14844,13 +14844,13 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>8.203195614642988E-05</v>
+        <v>5.895296841031013E-05</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E233">
         <v>0.67</v>
@@ -14862,7 +14862,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>466</v>
@@ -14894,7 +14894,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>5.800535246513806E-05</v>
+        <v>5.895296841031013E-05</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14912,7 +14912,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>467</v>
@@ -14944,7 +14944,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>5.800535246513806E-05</v>
+        <v>5.895296841031013E-05</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -14962,7 +14962,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>468</v>
@@ -14994,7 +14994,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>5.800535246513806E-05</v>
+        <v>5.895296841031013E-05</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15012,7 +15012,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>469</v>
@@ -15044,7 +15044,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>5.800535246513806E-05</v>
+        <v>5.895296841031013E-05</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15062,7 +15062,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>470</v>
@@ -15094,7 +15094,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>5.800535246513806E-05</v>
+        <v>5.895296841031013E-05</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15112,7 +15112,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>471</v>
@@ -15144,7 +15144,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>5.800535246513806E-05</v>
+        <v>5.895296841031013E-05</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15162,7 +15162,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>472</v>
@@ -15194,7 +15194,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>5.800535246513806E-05</v>
+        <v>5.895296841031013E-05</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15212,7 +15212,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>473</v>
@@ -15244,25 +15244,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>5.800535246513806E-05</v>
+        <v>0</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E241">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F241">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>474</v>
@@ -15294,25 +15294,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>5.800535246513806E-05</v>
+        <v>0</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E242">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F242">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>475</v>
@@ -15362,7 +15362,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>476</v>
@@ -15412,7 +15412,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>477</v>
@@ -15462,7 +15462,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>478</v>
@@ -15512,7 +15512,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>479</v>
@@ -15562,7 +15562,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>480</v>
@@ -15612,7 +15612,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>481</v>
@@ -15662,7 +15662,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>482</v>
@@ -15712,10 +15712,10 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K250">
         <v>0.001003256382057173</v>
@@ -15762,10 +15762,10 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K251">
         <v>0.0009793836940514874</v>
@@ -15812,10 +15812,10 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K252">
         <v>0.00091824886048847</v>
@@ -15847,10 +15847,10 @@
         <v>0</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E253">
         <v>0.5</v>
@@ -15862,7 +15862,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>483</v>
@@ -15912,7 +15912,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>484</v>
@@ -15947,10 +15947,10 @@
         <v>0</v>
       </c>
       <c r="C255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E255">
         <v>0.5</v>
@@ -15962,7 +15962,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>485</v>
@@ -16012,7 +16012,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>486</v>
@@ -16062,7 +16062,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>487</v>
@@ -16112,7 +16112,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>488</v>
@@ -16140,30 +16140,6 @@
       </c>
     </row>
     <row r="259" spans="1:17">
-      <c r="A259" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B259">
-        <v>0</v>
-      </c>
-      <c r="C259">
-        <v>1</v>
-      </c>
-      <c r="D259">
-        <v>2</v>
-      </c>
-      <c r="E259">
-        <v>0.5</v>
-      </c>
-      <c r="F259">
-        <v>0.5</v>
-      </c>
-      <c r="G259" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259">
-        <v>228</v>
-      </c>
       <c r="J259" s="1" t="s">
         <v>489</v>
       </c>
@@ -16190,30 +16166,6 @@
       </c>
     </row>
     <row r="260" spans="1:17">
-      <c r="A260" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B260">
-        <v>0</v>
-      </c>
-      <c r="C260">
-        <v>1</v>
-      </c>
-      <c r="D260">
-        <v>2</v>
-      </c>
-      <c r="E260">
-        <v>0.5</v>
-      </c>
-      <c r="F260">
-        <v>0.5</v>
-      </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260">
-        <v>48</v>
-      </c>
       <c r="J260" s="1" t="s">
         <v>490</v>
       </c>
@@ -19387,7 +19339,7 @@
     </row>
     <row r="382" spans="10:17">
       <c r="J382" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K382">
         <v>0.0008797115239099242</v>
@@ -19413,7 +19365,7 @@
     </row>
     <row r="383" spans="10:17">
       <c r="J383" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K383">
         <v>0.0008296024771030275</v>
@@ -19439,7 +19391,7 @@
     </row>
     <row r="384" spans="10:17">
       <c r="J384" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K384">
         <v>0.000784472718928027</v>
@@ -19465,7 +19417,7 @@
     </row>
     <row r="385" spans="10:17">
       <c r="J385" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K385">
         <v>0.0007781564075458149</v>
@@ -19491,7 +19443,7 @@
     </row>
     <row r="386" spans="10:17">
       <c r="J386" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K386">
         <v>0.000743886236904833</v>
@@ -19517,7 +19469,7 @@
     </row>
     <row r="387" spans="10:17">
       <c r="J387" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K387">
         <v>0.000738785922463053</v>
@@ -19543,7 +19495,7 @@
     </row>
     <row r="388" spans="10:17">
       <c r="J388" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K388">
         <v>0.0007263313360626885</v>
@@ -19569,7 +19521,7 @@
     </row>
     <row r="389" spans="10:17">
       <c r="J389" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K389">
         <v>0.0006925288514473376</v>
@@ -19595,7 +19547,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K390">
         <v>0.0006456901729440822</v>
@@ -28903,7 +28855,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K748">
         <v>0.0005502396725994077</v>
@@ -28929,7 +28881,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K749">
         <v>0.0005502396725994077</v>
@@ -28955,7 +28907,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K750">
         <v>0.0005502396725994077</v>
@@ -28981,7 +28933,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K751">
         <v>0.0004627985708039303</v>
@@ -29007,7 +28959,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K752">
         <v>0.000452442273221248</v>
@@ -29033,7 +28985,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K753">
         <v>0.000452442273221248</v>
@@ -29059,7 +29011,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K754">
         <v>0.0004269715879868912</v>
@@ -29085,7 +29037,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K755">
         <v>0.0004027143956229337</v>
@@ -29111,7 +29063,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K756">
         <v>0.0004027143956229337</v>
@@ -29137,7 +29089,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K757">
         <v>0.0004027143956229337</v>
@@ -29163,7 +29115,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K758">
         <v>0.0004027143956229337</v>
@@ -29189,7 +29141,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K759">
         <v>0.0003551362764786415</v>
@@ -29215,7 +29167,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K760">
         <v>0.0003551362764786415</v>
@@ -29241,7 +29193,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K761">
         <v>0.0003525041760107799</v>
@@ -29267,7 +29219,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K762">
         <v>0.0003525041760107799</v>
@@ -29293,7 +29245,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K763">
         <v>0.0003525041760107799</v>
@@ -29319,7 +29271,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K764">
         <v>0.0003525041760107799</v>
@@ -29345,7 +29297,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K765">
         <v>0.0003019145052395195</v>
@@ -29371,7 +29323,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K766">
         <v>0.0002890766788283153</v>
@@ -29397,7 +29349,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K767">
         <v>0.0002834274074274504</v>
@@ -29423,7 +29375,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K768">
         <v>0.0002511192693433886</v>
@@ -29449,7 +29401,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K769">
         <v>0.0002511192693433886</v>
@@ -29475,7 +29427,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K770">
         <v>0.0002511192693433886</v>
@@ -29501,7 +29453,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K771">
         <v>0.0002478287644602173</v>
@@ -29527,7 +29479,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K772">
         <v>0.0002318949603477918</v>
@@ -29553,7 +29505,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K773">
         <v>0.0002038171263880817</v>
@@ -29579,7 +29531,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K774">
         <v>0.0002004134417660727</v>
@@ -29605,7 +29557,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K775">
         <v>0.0002004134417660727</v>
@@ -29631,7 +29583,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K776">
         <v>0.0002004134417660727</v>
@@ -29657,7 +29609,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K777">
         <v>0.0002004134417660727</v>
@@ -29683,7 +29635,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K778">
         <v>0.0002004134417660727</v>
@@ -29709,7 +29661,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K779">
         <v>0.0001503096283859956</v>
@@ -29735,7 +29687,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K780">
         <v>0.0001503096283859956</v>
@@ -29761,7 +29713,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K781">
         <v>0.0001503096283859956</v>
@@ -29787,7 +29739,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K782">
         <v>0.0001503096283859956</v>
@@ -29813,7 +29765,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K783">
         <v>0.0001503096283859956</v>
@@ -29839,7 +29791,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K784">
         <v>0.0001503096283859956</v>
@@ -29865,7 +29817,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K785">
         <v>0.0001017407569056418</v>
@@ -29891,7 +29843,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K786">
         <v>0.0001017407569056418</v>
@@ -29917,7 +29869,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K787">
         <v>0.0001017407569056418</v>
@@ -29943,7 +29895,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K788">
         <v>0.0001017407569056418</v>
@@ -29969,7 +29921,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K789">
         <v>0.0001017407569056418</v>
@@ -29995,7 +29947,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K790">
         <v>0.0001017407569056418</v>
@@ -30021,7 +29973,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K791">
         <v>0.0001017407569056418</v>
@@ -30047,7 +29999,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K792">
         <v>0.0001017407569056418</v>
@@ -30073,7 +30025,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K793">
         <v>0.0001017407569056418</v>
@@ -30099,7 +30051,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K794">
         <v>5.653927207538661E-05</v>
@@ -30125,7 +30077,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K795">
         <v>5.653927207538661E-05</v>
@@ -30151,7 +30103,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K796">
         <v>5.653927207538661E-05</v>
@@ -30177,7 +30129,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K797">
         <v>5.653927207538661E-05</v>
@@ -30203,7 +30155,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K798">
         <v>5.653927207538661E-05</v>
@@ -30229,7 +30181,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K799">
         <v>5.653927207538661E-05</v>
@@ -30255,7 +30207,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K800">
         <v>5.653927207538661E-05</v>
@@ -30281,7 +30233,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K801">
         <v>5.653927207538661E-05</v>
@@ -30307,7 +30259,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K802">
         <v>5.653927207538661E-05</v>
@@ -30333,7 +30285,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K803">
         <v>5.653927207538661E-05</v>
@@ -30359,7 +30311,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K804">
         <v>5.653927207538661E-05</v>
@@ -30385,7 +30337,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K805">
         <v>5.653927207538661E-05</v>
@@ -30411,7 +30363,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K806">
         <v>5.653927207538661E-05</v>
@@ -30437,7 +30389,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K807">
         <v>5.214435453322557E-05</v>
@@ -30463,7 +30415,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K808">
         <v>5.134722626348288E-05</v>
@@ -30489,7 +30441,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K809">
         <v>5.134722626348288E-05</v>
@@ -30515,7 +30467,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K810">
         <v>5.134722626348288E-05</v>
@@ -30541,7 +30493,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K811">
         <v>3.264296395251009E-05</v>
@@ -30567,7 +30519,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K812">
         <v>2.657317586431615E-05</v>
@@ -30593,7 +30545,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K813">
         <v>1.879007285132074E-05</v>
@@ -30619,7 +30571,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K814">
         <v>1.879007285132074E-05</v>
@@ -30645,7 +30597,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K815">
         <v>1.879007285132074E-05</v>
@@ -30671,7 +30623,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K816">
         <v>1.879007285132074E-05</v>
@@ -30697,7 +30649,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K817">
         <v>1.879007285132074E-05</v>
@@ -30723,7 +30675,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K818">
         <v>1.879007285132074E-05</v>
@@ -30749,7 +30701,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K819">
         <v>1.879007285132074E-05</v>
@@ -30775,7 +30727,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K820">
         <v>1.879007285132074E-05</v>
@@ -30801,7 +30753,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K821">
         <v>1.879007285132074E-05</v>
@@ -30827,7 +30779,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K822">
         <v>0</v>
@@ -30853,7 +30805,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K823">
         <v>0</v>
@@ -30879,7 +30831,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K824">
         <v>0</v>
@@ -30905,7 +30857,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K825">
         <v>0</v>
@@ -30931,7 +30883,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K826">
         <v>0</v>
@@ -30957,7 +30909,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K827">
         <v>0</v>
@@ -30983,7 +30935,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K828">
         <v>0</v>
@@ -31009,7 +30961,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K829">
         <v>0</v>
@@ -31035,7 +30987,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K830">
         <v>0</v>
@@ -31061,7 +31013,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K831">
         <v>0</v>
@@ -31087,7 +31039,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K832">
         <v>0</v>
@@ -31113,7 +31065,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K833">
         <v>0</v>
@@ -31139,7 +31091,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K834">
         <v>0</v>
@@ -31165,7 +31117,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K835">
         <v>0</v>
@@ -31191,7 +31143,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K836">
         <v>0</v>
@@ -31217,7 +31169,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K837">
         <v>0</v>
@@ -31243,7 +31195,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K838">
         <v>0</v>
@@ -31269,7 +31221,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K839">
         <v>0</v>
